--- a/Data/g19.14.xlsx
+++ b/Data/g19.14.xlsx
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>541.5241628090347</v>
+        <v>546.7440557326659</v>
       </c>
       <c r="E24" t="inlineStr"/>
     </row>

--- a/Data/g19.14.xlsx
+++ b/Data/g19.14.xlsx
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>546.7440557326659</v>
+        <v>541.5241628090347</v>
       </c>
       <c r="E24" t="inlineStr"/>
     </row>

--- a/Data/g19.14.xlsx
+++ b/Data/g19.14.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>532.6183065481365</v>
+        <v>558.3437707544115</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>518.9660553902952</v>
+        <v>544.0321158656463</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>514.2114423463192</v>
+        <v>539.0478550116464</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>523.4092351536189</v>
+        <v>548.6899012115387</v>
       </c>
       <c r="E5" t="n">
         <v>12</v>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>535.5490561401618</v>
+        <v>561.4160755517315</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>506.8436932084558</v>
+        <v>531.3242435904241</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>718.0738148129959</v>
+        <v>752.7567800684636</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>560.183942491293</v>
+        <v>587.2408269136225</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>536.2425612001673</v>
+        <v>562.1430769061353</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>340.7825713200917</v>
+        <v>357.242369514852</v>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>368.3374975840387</v>
+        <v>386.1281987173477</v>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>375.0171202256736</v>
+        <v>393.1304471325736</v>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>395.064340879139</v>
+        <v>414.1459485436014</v>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>401.9595522794767</v>
+        <v>421.3741986545754</v>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>388.8867183204491</v>
+        <v>407.6699468153267</v>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>391.2449869766873</v>
+        <v>410.1421198476613</v>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>409.4344800803725</v>
+        <v>429.2101654682545</v>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>446.6989414526388</v>
+        <v>468.2745003248013</v>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>525.4210909745451</v>
+        <v>550.7989296686155</v>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>526.2064948396728</v>
+        <v>551.622268540429</v>
       </c>
       <c r="E21" t="inlineStr"/>
     </row>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>532.3219377363058</v>
+        <v>558.0330873289694</v>
       </c>
       <c r="E22" t="inlineStr"/>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>542.2080911164431</v>
+        <v>568.3967419173672</v>
       </c>
       <c r="E23" t="inlineStr"/>
     </row>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>541.5241628090347</v>
+        <v>567.679779872711</v>
       </c>
       <c r="E24" t="inlineStr"/>
     </row>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>530.9836417031551</v>
+        <v>556.6301515974175</v>
       </c>
       <c r="E25" t="inlineStr"/>
     </row>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>517.0460837863043</v>
+        <v>542.0194096331828</v>
       </c>
       <c r="E26" t="inlineStr"/>
     </row>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>591.4918675311739</v>
+        <v>620.0609247329296</v>
       </c>
       <c r="E27" t="inlineStr"/>
     </row>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>619.5776558438998</v>
+        <v>649.5032566211601</v>
       </c>
       <c r="E28" t="inlineStr"/>
     </row>

--- a/Data/g19.14.xlsx
+++ b/Data/g19.14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -680,13 +680,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>357.242369514852</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>768.9122732866518</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -701,11 +703,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>386.1281987173477</v>
+        <v>357.242369514852</v>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
@@ -722,11 +724,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>393.1304471325736</v>
+        <v>386.1281987173477</v>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
@@ -743,11 +745,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>414.1459485436014</v>
+        <v>393.1304471325736</v>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
@@ -764,11 +766,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>421.3741986545754</v>
+        <v>414.1459485436014</v>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
@@ -785,11 +787,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>407.6699468153267</v>
+        <v>421.3741986545754</v>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
@@ -806,11 +808,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>410.1421198476613</v>
+        <v>407.6699468153267</v>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
@@ -827,11 +829,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>429.2101654682545</v>
+        <v>410.1421198476613</v>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
@@ -848,18 +850,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>468.2745003248013</v>
+        <v>429.2101654682545</v>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -869,18 +871,18 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>550.7989296686155</v>
+        <v>468.2745003248013</v>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -890,11 +892,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>551.622268540429</v>
+        <v>538.2672412097861</v>
       </c>
       <c r="E21" t="inlineStr"/>
     </row>
@@ -911,11 +913,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>558.0330873289694</v>
+        <v>550.7989296686155</v>
       </c>
       <c r="E22" t="inlineStr"/>
     </row>
@@ -932,11 +934,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>568.3967419173672</v>
+        <v>551.622268540429</v>
       </c>
       <c r="E23" t="inlineStr"/>
     </row>
@@ -953,11 +955,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>567.679779872711</v>
+        <v>558.0330873289694</v>
       </c>
       <c r="E24" t="inlineStr"/>
     </row>
@@ -974,11 +976,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>556.6301515974175</v>
+        <v>568.3967419173672</v>
       </c>
       <c r="E25" t="inlineStr"/>
     </row>
@@ -995,11 +997,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>542.0194096331828</v>
+        <v>567.679779872711</v>
       </c>
       <c r="E26" t="inlineStr"/>
     </row>
@@ -1016,11 +1018,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>620.0609247329296</v>
+        <v>556.6301515974175</v>
       </c>
       <c r="E27" t="inlineStr"/>
     </row>
@@ -1037,13 +1039,76 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>542.0194096331828</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Gastos públicos com segurança</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>620.0609247329296</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Gastos públicos com segurança</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D30" t="n">
         <v>649.5032566211601</v>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Gastos públicos com segurança</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>711.5263293354096</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
